--- a/LifeCycleDevEnvironmentConsole/WorkFlow Data/TheBay/Template/Daily Workflow_TheBay_Final_Template_2020.xlsx
+++ b/LifeCycleDevEnvironmentConsole/WorkFlow Data/TheBay/Template/Daily Workflow_TheBay_Final_Template_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Middle\Desktop\WorkFlow Data\TheBay\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Middle\source\repos\alwaysmiddle\LifeCycleWorkflowTool\LifeCycleDevEnvironmentConsole\WorkFlow Data\TheBay\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54CB085-FCC1-4BD2-AD03-0375D8C863E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD1FF4F-CC81-4555-8761-8BCA6D91E686}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="756" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19875" yWindow="840" windowWidth="21180" windowHeight="14310" tabRatio="756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Chart" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="386">
   <si>
     <t>Thebay.com Daily Workflow Summary Chart</t>
   </si>
@@ -1323,9 +1323,6 @@
   </si>
   <si>
     <t>Duplicate</t>
-  </si>
-  <si>
-    <t>DUPES REMOVED</t>
   </si>
   <si>
     <t>Season/Confection/Impuls</t>
@@ -3017,7 +3014,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="446">
+  <cellXfs count="445">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3945,9 +3942,6 @@
     </xf>
     <xf numFmtId="44" fontId="14" fillId="16" borderId="96" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="18" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4295,6 +4289,101 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="31">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4555,101 +4644,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4712,12 +4706,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A6:C15" totalsRowShown="0" headerRowDxfId="30" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A6:C15" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A6:C15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Current_Workflow_Status (Column BF)" dataDxfId="28" dataCellStyle="Normal 46"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Current Team (Column BH)" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Definition" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Current_Workflow_Status (Column BF)" dataDxfId="2" dataCellStyle="Normal 46"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Current Team (Column BH)" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Definition" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4990,10 +4984,10 @@
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO69"/>
+  <dimension ref="A1:BO73"/>
   <sheetViews>
-    <sheetView topLeftCell="O38" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="BO69" sqref="BO69"/>
+    <sheetView tabSelected="1" topLeftCell="D48" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="N75" sqref="N75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -5024,15 +5018,15 @@
     <col min="26" max="26" width="12.7109375" style="171" customWidth="1"/>
     <col min="27" max="27" width="12.7109375" style="102" customWidth="1"/>
     <col min="28" max="28" width="18.7109375" style="5" customWidth="1"/>
-    <col min="29" max="29" width="12.42578125" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="12" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="20.5703125" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="11.7109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="12" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="28.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="11.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="12" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="37" width="25.7109375" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="12.42578125" style="100" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="12" style="100" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="20.5703125" style="7" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="11.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="12" style="100" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="28.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="11.7109375" style="100" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="12" style="100" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="25.7109375" style="7" customWidth="1" outlineLevel="1"/>
     <col min="38" max="39" width="12.7109375" style="100" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="18.7109375" style="7" hidden="1" customWidth="1"/>
     <col min="41" max="42" width="12.7109375" style="100" hidden="1" customWidth="1"/>
@@ -5155,53 +5149,53 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="10"/>
-      <c r="N5" s="391">
+      <c r="N5" s="390">
         <f ca="1">TODAY()</f>
-        <v>43986</v>
-      </c>
-      <c r="O5" s="392"/>
-      <c r="P5" s="392"/>
-      <c r="Q5" s="392"/>
-      <c r="R5" s="392"/>
-      <c r="S5" s="392"/>
-      <c r="T5" s="392"/>
-      <c r="U5" s="392"/>
-      <c r="V5" s="393"/>
-      <c r="W5" s="394" t="s">
+        <v>44014</v>
+      </c>
+      <c r="O5" s="391"/>
+      <c r="P5" s="391"/>
+      <c r="Q5" s="391"/>
+      <c r="R5" s="391"/>
+      <c r="S5" s="391"/>
+      <c r="T5" s="391"/>
+      <c r="U5" s="391"/>
+      <c r="V5" s="392"/>
+      <c r="W5" s="393" t="s">
         <v>0</v>
       </c>
-      <c r="X5" s="395"/>
-      <c r="Y5" s="395"/>
-      <c r="Z5" s="395"/>
-      <c r="AA5" s="395"/>
-      <c r="AB5" s="395"/>
-      <c r="AC5" s="395"/>
-      <c r="AD5" s="395"/>
-      <c r="AE5" s="395"/>
-      <c r="AF5" s="395"/>
-      <c r="AG5" s="395"/>
-      <c r="AH5" s="395"/>
-      <c r="AI5" s="395"/>
-      <c r="AJ5" s="395"/>
-      <c r="AK5" s="395"/>
-      <c r="AL5" s="395"/>
-      <c r="AM5" s="395"/>
-      <c r="AN5" s="395"/>
-      <c r="AO5" s="395"/>
-      <c r="AP5" s="395"/>
-      <c r="AQ5" s="395"/>
-      <c r="AR5" s="395"/>
-      <c r="AS5" s="395"/>
-      <c r="AT5" s="395"/>
-      <c r="AU5" s="395"/>
-      <c r="AV5" s="395"/>
-      <c r="AW5" s="395"/>
-      <c r="AX5" s="395"/>
-      <c r="AY5" s="395"/>
-      <c r="AZ5" s="395"/>
-      <c r="BA5" s="395"/>
-      <c r="BB5" s="395"/>
-      <c r="BC5" s="395"/>
+      <c r="X5" s="394"/>
+      <c r="Y5" s="394"/>
+      <c r="Z5" s="394"/>
+      <c r="AA5" s="394"/>
+      <c r="AB5" s="394"/>
+      <c r="AC5" s="394"/>
+      <c r="AD5" s="394"/>
+      <c r="AE5" s="394"/>
+      <c r="AF5" s="394"/>
+      <c r="AG5" s="394"/>
+      <c r="AH5" s="394"/>
+      <c r="AI5" s="394"/>
+      <c r="AJ5" s="394"/>
+      <c r="AK5" s="394"/>
+      <c r="AL5" s="394"/>
+      <c r="AM5" s="394"/>
+      <c r="AN5" s="394"/>
+      <c r="AO5" s="394"/>
+      <c r="AP5" s="394"/>
+      <c r="AQ5" s="394"/>
+      <c r="AR5" s="394"/>
+      <c r="AS5" s="394"/>
+      <c r="AT5" s="394"/>
+      <c r="AU5" s="394"/>
+      <c r="AV5" s="394"/>
+      <c r="AW5" s="394"/>
+      <c r="AX5" s="394"/>
+      <c r="AY5" s="394"/>
+      <c r="AZ5" s="394"/>
+      <c r="BA5" s="394"/>
+      <c r="BB5" s="394"/>
+      <c r="BC5" s="394"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.2">
       <c r="D6" s="2"/>
@@ -5318,17 +5312,17 @@
       <c r="K8" s="17"/>
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
-      <c r="N8" s="396" t="s">
+      <c r="N8" s="395" t="s">
         <v>1</v>
       </c>
-      <c r="O8" s="397"/>
-      <c r="P8" s="397"/>
-      <c r="Q8" s="397"/>
-      <c r="R8" s="397"/>
-      <c r="S8" s="397"/>
-      <c r="T8" s="397"/>
-      <c r="U8" s="397"/>
-      <c r="V8" s="398"/>
+      <c r="O8" s="396"/>
+      <c r="P8" s="396"/>
+      <c r="Q8" s="396"/>
+      <c r="R8" s="396"/>
+      <c r="S8" s="396"/>
+      <c r="T8" s="396"/>
+      <c r="U8" s="396"/>
+      <c r="V8" s="397"/>
       <c r="W8" s="15"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
@@ -5338,113 +5332,113 @@
     </row>
     <row r="9" spans="1:67" s="18" customFormat="1" ht="68.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D9" s="19"/>
-      <c r="E9" s="382" t="s">
+      <c r="E9" s="381" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="383"/>
-      <c r="G9" s="384"/>
-      <c r="H9" s="382" t="s">
+      <c r="F9" s="382"/>
+      <c r="G9" s="383"/>
+      <c r="H9" s="381" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="383"/>
-      <c r="J9" s="384"/>
-      <c r="K9" s="382" t="s">
+      <c r="I9" s="382"/>
+      <c r="J9" s="383"/>
+      <c r="K9" s="381" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="383"/>
-      <c r="M9" s="384"/>
-      <c r="N9" s="385" t="s">
+      <c r="L9" s="382"/>
+      <c r="M9" s="383"/>
+      <c r="N9" s="384" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="386"/>
-      <c r="P9" s="386"/>
-      <c r="Q9" s="386"/>
-      <c r="R9" s="387"/>
-      <c r="S9" s="385" t="s">
+      <c r="O9" s="385"/>
+      <c r="P9" s="385"/>
+      <c r="Q9" s="385"/>
+      <c r="R9" s="386"/>
+      <c r="S9" s="384" t="s">
         <v>6</v>
       </c>
-      <c r="T9" s="387"/>
-      <c r="U9" s="385" t="s">
+      <c r="T9" s="386"/>
+      <c r="U9" s="384" t="s">
         <v>7</v>
       </c>
-      <c r="V9" s="387"/>
-      <c r="W9" s="399" t="s">
+      <c r="V9" s="386"/>
+      <c r="W9" s="398" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="400"/>
-      <c r="Y9" s="401"/>
-      <c r="Z9" s="402" t="s">
+      <c r="X9" s="399"/>
+      <c r="Y9" s="400"/>
+      <c r="Z9" s="401" t="s">
         <v>9</v>
       </c>
-      <c r="AA9" s="403"/>
-      <c r="AB9" s="404"/>
-      <c r="AC9" s="405" t="s">
+      <c r="AA9" s="402"/>
+      <c r="AB9" s="403"/>
+      <c r="AC9" s="404" t="s">
         <v>10</v>
       </c>
-      <c r="AD9" s="406"/>
-      <c r="AE9" s="406"/>
-      <c r="AF9" s="405" t="s">
+      <c r="AD9" s="405"/>
+      <c r="AE9" s="405"/>
+      <c r="AF9" s="404" t="s">
         <v>10</v>
       </c>
-      <c r="AG9" s="406"/>
-      <c r="AH9" s="406"/>
-      <c r="AI9" s="405" t="s">
+      <c r="AG9" s="405"/>
+      <c r="AH9" s="405"/>
+      <c r="AI9" s="404" t="s">
         <v>10</v>
       </c>
-      <c r="AJ9" s="406"/>
-      <c r="AK9" s="406"/>
-      <c r="AL9" s="369" t="s">
+      <c r="AJ9" s="405"/>
+      <c r="AK9" s="405"/>
+      <c r="AL9" s="368" t="s">
         <v>10</v>
       </c>
-      <c r="AM9" s="370"/>
-      <c r="AN9" s="370"/>
-      <c r="AO9" s="369" t="s">
+      <c r="AM9" s="369"/>
+      <c r="AN9" s="369"/>
+      <c r="AO9" s="368" t="s">
         <v>10</v>
       </c>
-      <c r="AP9" s="370"/>
-      <c r="AQ9" s="370"/>
-      <c r="AR9" s="369" t="s">
+      <c r="AP9" s="369"/>
+      <c r="AQ9" s="369"/>
+      <c r="AR9" s="368" t="s">
         <v>10</v>
       </c>
-      <c r="AS9" s="370"/>
-      <c r="AT9" s="370"/>
-      <c r="AU9" s="373" t="s">
+      <c r="AS9" s="369"/>
+      <c r="AT9" s="369"/>
+      <c r="AU9" s="372" t="s">
         <v>11</v>
       </c>
-      <c r="AV9" s="374"/>
-      <c r="AW9" s="374"/>
-      <c r="AX9" s="371" t="s">
+      <c r="AV9" s="373"/>
+      <c r="AW9" s="373"/>
+      <c r="AX9" s="370" t="s">
         <v>12</v>
       </c>
-      <c r="AY9" s="372"/>
-      <c r="AZ9" s="372"/>
-      <c r="BA9" s="363" t="s">
+      <c r="AY9" s="371"/>
+      <c r="AZ9" s="371"/>
+      <c r="BA9" s="362" t="s">
         <v>13</v>
       </c>
-      <c r="BB9" s="364"/>
-      <c r="BC9" s="364"/>
-      <c r="BD9" s="365" t="s">
+      <c r="BB9" s="363"/>
+      <c r="BC9" s="363"/>
+      <c r="BD9" s="364" t="s">
         <v>14</v>
       </c>
-      <c r="BE9" s="366"/>
-      <c r="BF9" s="366"/>
-      <c r="BG9" s="367" t="s">
+      <c r="BE9" s="365"/>
+      <c r="BF9" s="365"/>
+      <c r="BG9" s="366" t="s">
         <v>14</v>
       </c>
-      <c r="BH9" s="366"/>
-      <c r="BI9" s="366"/>
-      <c r="BJ9" s="407" t="s">
+      <c r="BH9" s="365"/>
+      <c r="BI9" s="365"/>
+      <c r="BJ9" s="406" t="s">
         <v>14</v>
       </c>
-      <c r="BK9" s="408"/>
-      <c r="BL9" s="408"/>
-      <c r="BM9" s="388" t="s">
+      <c r="BK9" s="407"/>
+      <c r="BL9" s="407"/>
+      <c r="BM9" s="387" t="s">
         <v>14</v>
       </c>
-      <c r="BN9" s="389"/>
-      <c r="BO9" s="390"/>
-    </row>
-    <row r="10" spans="1:67" s="20" customFormat="1" ht="25.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="BN9" s="388"/>
+      <c r="BO9" s="389"/>
+    </row>
+    <row r="10" spans="1:67" s="20" customFormat="1" ht="25.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D10" s="21" t="s">
         <v>15</v>
       </c>
@@ -5668,7 +5662,7 @@
       <c r="BO11" s="318"/>
     </row>
     <row r="12" spans="1:67" ht="48" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="375" t="s">
+      <c r="D12" s="374" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="52" t="s">
@@ -5695,125 +5689,125 @@
       <c r="N12" s="253" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="376" t="s">
+      <c r="O12" s="375" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="376"/>
-      <c r="Q12" s="376"/>
-      <c r="R12" s="377"/>
-      <c r="S12" s="378" t="s">
+      <c r="P12" s="375"/>
+      <c r="Q12" s="375"/>
+      <c r="R12" s="376"/>
+      <c r="S12" s="377" t="s">
         <v>29</v>
       </c>
-      <c r="T12" s="379"/>
-      <c r="U12" s="380" t="s">
+      <c r="T12" s="378"/>
+      <c r="U12" s="379" t="s">
         <v>29</v>
       </c>
-      <c r="V12" s="381"/>
+      <c r="V12" s="380"/>
       <c r="W12" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="X12" s="360" t="s">
+      <c r="X12" s="359" t="s">
         <v>29</v>
       </c>
-      <c r="Y12" s="362"/>
+      <c r="Y12" s="361"/>
       <c r="Z12" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="AA12" s="360" t="s">
+      <c r="AA12" s="359" t="s">
         <v>29</v>
       </c>
-      <c r="AB12" s="362"/>
+      <c r="AB12" s="361"/>
       <c r="AC12" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="AD12" s="360" t="s">
+      <c r="AD12" s="359" t="s">
         <v>29</v>
       </c>
-      <c r="AE12" s="361"/>
+      <c r="AE12" s="360"/>
       <c r="AF12" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="AG12" s="360" t="s">
+      <c r="AG12" s="359" t="s">
         <v>29</v>
       </c>
-      <c r="AH12" s="361"/>
+      <c r="AH12" s="360"/>
       <c r="AI12" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="AJ12" s="360" t="s">
+      <c r="AJ12" s="359" t="s">
         <v>29</v>
       </c>
-      <c r="AK12" s="361"/>
+      <c r="AK12" s="360"/>
       <c r="AL12" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="AM12" s="360" t="s">
+      <c r="AM12" s="359" t="s">
         <v>29</v>
       </c>
-      <c r="AN12" s="362"/>
+      <c r="AN12" s="361"/>
       <c r="AO12" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="AP12" s="360" t="s">
+      <c r="AP12" s="359" t="s">
         <v>29</v>
       </c>
-      <c r="AQ12" s="362"/>
+      <c r="AQ12" s="361"/>
       <c r="AR12" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="AS12" s="360" t="s">
+      <c r="AS12" s="359" t="s">
         <v>29</v>
       </c>
-      <c r="AT12" s="362"/>
+      <c r="AT12" s="361"/>
       <c r="AU12" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="AV12" s="360" t="s">
+      <c r="AV12" s="359" t="s">
         <v>29</v>
       </c>
-      <c r="AW12" s="362"/>
+      <c r="AW12" s="361"/>
       <c r="AX12" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="AY12" s="360" t="s">
+      <c r="AY12" s="359" t="s">
         <v>29</v>
       </c>
-      <c r="AZ12" s="362"/>
+      <c r="AZ12" s="361"/>
       <c r="BA12" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="BB12" s="360" t="s">
+      <c r="BB12" s="359" t="s">
         <v>29</v>
       </c>
-      <c r="BC12" s="362"/>
+      <c r="BC12" s="361"/>
       <c r="BD12" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="BE12" s="368" t="s">
+      <c r="BE12" s="367" t="s">
         <v>29</v>
       </c>
-      <c r="BF12" s="361"/>
+      <c r="BF12" s="360"/>
       <c r="BG12" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="BH12" s="368" t="s">
+      <c r="BH12" s="367" t="s">
         <v>29</v>
       </c>
-      <c r="BI12" s="361"/>
+      <c r="BI12" s="360"/>
       <c r="BJ12" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="BK12" s="360" t="s">
+      <c r="BK12" s="359" t="s">
         <v>29</v>
       </c>
-      <c r="BL12" s="361"/>
+      <c r="BL12" s="360"/>
       <c r="BM12" s="314" t="s">
         <v>28</v>
       </c>
-      <c r="BN12" s="360" t="s">
+      <c r="BN12" s="359" t="s">
         <v>29</v>
       </c>
-      <c r="BO12" s="362"/>
+      <c r="BO12" s="361"/>
     </row>
     <row r="13" spans="1:67" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
@@ -5822,7 +5816,7 @@
       <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="375"/>
+      <c r="D13" s="374"/>
       <c r="E13" s="57" t="s">
         <v>32</v>
       </c>
@@ -9301,8 +9295,8 @@
     <row r="51" spans="1:67" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="68"/>
       <c r="C51" s="68"/>
-      <c r="D51" s="342" t="s">
-        <v>386</v>
+      <c r="D51" s="341" t="s">
+        <v>385</v>
       </c>
       <c r="E51" s="331"/>
       <c r="F51" s="332"/>
@@ -9313,60 +9307,60 @@
       <c r="K51" s="331"/>
       <c r="L51" s="332"/>
       <c r="M51" s="333"/>
-      <c r="N51" s="343"/>
-      <c r="O51" s="344"/>
-      <c r="P51" s="345"/>
-      <c r="Q51" s="346"/>
-      <c r="R51" s="347"/>
-      <c r="S51" s="346"/>
-      <c r="T51" s="347"/>
-      <c r="U51" s="346"/>
-      <c r="V51" s="348"/>
-      <c r="W51" s="349"/>
-      <c r="X51" s="350"/>
-      <c r="Y51" s="351"/>
-      <c r="Z51" s="349"/>
-      <c r="AA51" s="350"/>
-      <c r="AB51" s="351"/>
-      <c r="AC51" s="352"/>
-      <c r="AD51" s="350"/>
-      <c r="AE51" s="353"/>
-      <c r="AF51" s="352"/>
-      <c r="AG51" s="350"/>
-      <c r="AH51" s="354"/>
-      <c r="AI51" s="352"/>
-      <c r="AJ51" s="350"/>
-      <c r="AK51" s="353"/>
-      <c r="AL51" s="352"/>
-      <c r="AM51" s="350"/>
-      <c r="AN51" s="355"/>
-      <c r="AO51" s="352"/>
-      <c r="AP51" s="350"/>
-      <c r="AQ51" s="353"/>
-      <c r="AR51" s="349"/>
-      <c r="AS51" s="350"/>
-      <c r="AT51" s="351"/>
-      <c r="AU51" s="349"/>
-      <c r="AV51" s="350"/>
-      <c r="AW51" s="351"/>
-      <c r="AX51" s="349"/>
-      <c r="AY51" s="350"/>
-      <c r="AZ51" s="351"/>
-      <c r="BA51" s="349"/>
-      <c r="BB51" s="356"/>
-      <c r="BC51" s="357"/>
-      <c r="BD51" s="352"/>
-      <c r="BE51" s="350"/>
-      <c r="BF51" s="354"/>
-      <c r="BG51" s="352"/>
-      <c r="BH51" s="350"/>
-      <c r="BI51" s="354"/>
-      <c r="BJ51" s="358"/>
-      <c r="BK51" s="350"/>
-      <c r="BL51" s="355"/>
-      <c r="BM51" s="349"/>
-      <c r="BN51" s="356"/>
-      <c r="BO51" s="359"/>
+      <c r="N51" s="342"/>
+      <c r="O51" s="343"/>
+      <c r="P51" s="344"/>
+      <c r="Q51" s="345"/>
+      <c r="R51" s="346"/>
+      <c r="S51" s="345"/>
+      <c r="T51" s="346"/>
+      <c r="U51" s="345"/>
+      <c r="V51" s="347"/>
+      <c r="W51" s="348"/>
+      <c r="X51" s="349"/>
+      <c r="Y51" s="350"/>
+      <c r="Z51" s="348"/>
+      <c r="AA51" s="349"/>
+      <c r="AB51" s="350"/>
+      <c r="AC51" s="351"/>
+      <c r="AD51" s="349"/>
+      <c r="AE51" s="352"/>
+      <c r="AF51" s="351"/>
+      <c r="AG51" s="349"/>
+      <c r="AH51" s="353"/>
+      <c r="AI51" s="351"/>
+      <c r="AJ51" s="349"/>
+      <c r="AK51" s="352"/>
+      <c r="AL51" s="351"/>
+      <c r="AM51" s="349"/>
+      <c r="AN51" s="354"/>
+      <c r="AO51" s="351"/>
+      <c r="AP51" s="349"/>
+      <c r="AQ51" s="352"/>
+      <c r="AR51" s="348"/>
+      <c r="AS51" s="349"/>
+      <c r="AT51" s="350"/>
+      <c r="AU51" s="348"/>
+      <c r="AV51" s="349"/>
+      <c r="AW51" s="350"/>
+      <c r="AX51" s="348"/>
+      <c r="AY51" s="349"/>
+      <c r="AZ51" s="350"/>
+      <c r="BA51" s="348"/>
+      <c r="BB51" s="355"/>
+      <c r="BC51" s="356"/>
+      <c r="BD51" s="351"/>
+      <c r="BE51" s="349"/>
+      <c r="BF51" s="353"/>
+      <c r="BG51" s="351"/>
+      <c r="BH51" s="349"/>
+      <c r="BI51" s="353"/>
+      <c r="BJ51" s="357"/>
+      <c r="BK51" s="349"/>
+      <c r="BL51" s="354"/>
+      <c r="BM51" s="348"/>
+      <c r="BN51" s="355"/>
+      <c r="BO51" s="358"/>
     </row>
     <row r="52" spans="1:67" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="68"/>
@@ -9467,7 +9461,7 @@
         <v>7</v>
       </c>
       <c r="D53" s="74" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E53" s="75" t="s">
         <v>78</v>
@@ -10850,18 +10844,18 @@
       <c r="M68" s="97">
         <v>0</v>
       </c>
-      <c r="N68" s="335"/>
-      <c r="O68" s="335"/>
-      <c r="P68" s="336"/>
-      <c r="Q68" s="337"/>
+      <c r="N68" s="334"/>
+      <c r="O68" s="334"/>
+      <c r="P68" s="335"/>
+      <c r="Q68" s="336"/>
       <c r="R68" s="98"/>
-      <c r="S68" s="337"/>
+      <c r="S68" s="336"/>
       <c r="T68" s="98"/>
-      <c r="U68" s="337"/>
+      <c r="U68" s="336"/>
       <c r="V68" s="99"/>
-      <c r="W68" s="338"/>
-      <c r="X68" s="339"/>
-      <c r="Y68" s="340"/>
+      <c r="W68" s="337"/>
+      <c r="X68" s="338"/>
+      <c r="Y68" s="339"/>
       <c r="Z68" s="226"/>
       <c r="AA68" s="293"/>
       <c r="AB68" s="239"/>
@@ -10880,18 +10874,18 @@
       <c r="AO68" s="226"/>
       <c r="AP68" s="227"/>
       <c r="AQ68" s="230"/>
-      <c r="AR68" s="338"/>
-      <c r="AS68" s="339"/>
-      <c r="AT68" s="340"/>
+      <c r="AR68" s="337"/>
+      <c r="AS68" s="338"/>
+      <c r="AT68" s="339"/>
       <c r="AU68" s="226"/>
       <c r="AV68" s="227"/>
-      <c r="AW68" s="340"/>
+      <c r="AW68" s="339"/>
       <c r="AX68" s="226"/>
       <c r="AY68" s="293"/>
-      <c r="AZ68" s="340"/>
+      <c r="AZ68" s="339"/>
       <c r="BA68" s="226"/>
       <c r="BB68" s="227"/>
-      <c r="BC68" s="341"/>
+      <c r="BC68" s="340"/>
       <c r="BD68" s="226"/>
       <c r="BE68" s="227"/>
       <c r="BF68" s="225"/>
@@ -10903,12 +10897,15 @@
       <c r="BL68" s="232"/>
       <c r="BM68" s="226"/>
       <c r="BN68" s="227"/>
-      <c r="BO68" s="341"/>
+      <c r="BO68" s="340"/>
     </row>
     <row r="69" spans="1:67" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="N69" s="100"/>
       <c r="AX69" s="299"/>
     </row>
+    <row r="71" spans="1:67" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:67" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:67" collapsed="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="43">
     <mergeCell ref="BM9:BO9"/>
@@ -10956,106 +10953,106 @@
     <mergeCell ref="BB12:BC12"/>
   </mergeCells>
   <conditionalFormatting sqref="V14 V41:V47 V66:V68 V16:V21 V28:V33 V37 V59 V52:V54">
-    <cfRule type="cellIs" dxfId="25" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="45" operator="lessThan">
       <formula>0.019</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="46" operator="greaterThan">
       <formula>0.019</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22:V27">
-    <cfRule type="cellIs" dxfId="23" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="43" operator="lessThan">
       <formula>0.019</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="44" operator="greaterThan">
       <formula>0.019</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V60:V62">
-    <cfRule type="cellIs" dxfId="21" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="41" operator="lessThan">
       <formula>0.019</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="42" operator="greaterThan">
       <formula>0.019</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V63:V65">
-    <cfRule type="cellIs" dxfId="19" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="39" operator="lessThan">
       <formula>0.019</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="40" operator="greaterThan">
       <formula>0.019</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V40">
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="lessThan">
       <formula>0.019</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
       <formula>0.019</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V38:V39">
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="lessThan">
       <formula>0.019</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="24" operator="greaterThan">
       <formula>0.019</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="lessThan">
       <formula>0.019</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="greaterThan">
       <formula>0.019</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34:V36">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="lessThan">
       <formula>0.019</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="greaterThan">
       <formula>0.019</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="lessThan">
       <formula>0.019</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>0.019</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V48">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="lessThan">
       <formula>0.019</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="greaterThan">
       <formula>0.019</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V50:V51">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
       <formula>0.019</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
       <formula>0.019</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V57 V55">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
       <formula>0.019</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
       <formula>0.019</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V58 V56">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0.019</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>0.019</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11106,11 +11103,11 @@
       <c r="A4" s="113"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="415" t="s">
+      <c r="A5" s="414" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="416"/>
-      <c r="C5" s="417"/>
+      <c r="B5" s="415"/>
+      <c r="C5" s="416"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">
@@ -11228,11 +11225,11 @@
     <row r="17" spans="1:3" s="123" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:3" s="123" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:3" s="123" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="415" t="s">
+      <c r="A19" s="414" t="s">
         <v>210</v>
       </c>
-      <c r="B19" s="418"/>
-      <c r="C19" s="419"/>
+      <c r="B19" s="417"/>
+      <c r="C19" s="418"/>
     </row>
     <row r="20" spans="1:3" s="123" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="124" t="s">
@@ -11246,81 +11243,81 @@
       </c>
     </row>
     <row r="21" spans="1:3" s="123" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="420" t="s">
+      <c r="A21" s="419" t="s">
         <v>82</v>
       </c>
       <c r="B21" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="422" t="s">
+      <c r="C21" s="421" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="123" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="421"/>
+      <c r="A22" s="420"/>
       <c r="B22" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="423"/>
+      <c r="C22" s="422"/>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="421"/>
+      <c r="A23" s="420"/>
       <c r="B23" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="423"/>
+      <c r="C23" s="422"/>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="421"/>
+      <c r="A24" s="420"/>
       <c r="B24" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="423"/>
+      <c r="C24" s="422"/>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="421"/>
+      <c r="A25" s="420"/>
       <c r="B25" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="423"/>
+      <c r="C25" s="422"/>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="421"/>
+      <c r="A26" s="420"/>
       <c r="B26" s="128" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="423"/>
+      <c r="C26" s="422"/>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="421"/>
+      <c r="A27" s="420"/>
       <c r="B27" s="128" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="423"/>
+      <c r="C27" s="422"/>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="421"/>
+      <c r="A28" s="420"/>
       <c r="B28" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="423"/>
+      <c r="C28" s="422"/>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="421"/>
+      <c r="A29" s="420"/>
       <c r="B29" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="423"/>
+      <c r="C29" s="422"/>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="421"/>
+      <c r="A30" s="420"/>
       <c r="B30" s="128" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="423"/>
+      <c r="C30" s="422"/>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="421"/>
+      <c r="A31" s="420"/>
       <c r="B31" s="128" t="s">
         <v>96</v>
       </c>
@@ -11329,7 +11326,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="421"/>
+      <c r="A32" s="420"/>
       <c r="B32" s="128" t="s">
         <v>97</v>
       </c>
@@ -11338,7 +11335,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="424" t="s">
+      <c r="A33" s="423" t="s">
         <v>216</v>
       </c>
       <c r="B33" s="128" t="s">
@@ -11349,7 +11346,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="424"/>
+      <c r="A34" s="423"/>
       <c r="B34" s="128" t="s">
         <v>218</v>
       </c>
@@ -11358,7 +11355,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="424"/>
+      <c r="A35" s="423"/>
       <c r="B35" s="128" t="s">
         <v>100</v>
       </c>
@@ -11367,7 +11364,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="424"/>
+      <c r="A36" s="423"/>
       <c r="B36" s="128" t="s">
         <v>101</v>
       </c>
@@ -11376,7 +11373,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="424"/>
+      <c r="A37" s="423"/>
       <c r="B37" s="128" t="s">
         <v>102</v>
       </c>
@@ -11385,7 +11382,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="424"/>
+      <c r="A38" s="423"/>
       <c r="B38" s="128" t="s">
         <v>103</v>
       </c>
@@ -11394,7 +11391,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="424"/>
+      <c r="A39" s="423"/>
       <c r="B39" s="128" t="s">
         <v>104</v>
       </c>
@@ -11403,7 +11400,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="425"/>
+      <c r="A40" s="424"/>
       <c r="B40" s="128" t="s">
         <v>105</v>
       </c>
@@ -11412,7 +11409,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="426" t="s">
+      <c r="A41" s="425" t="s">
         <v>226</v>
       </c>
       <c r="B41" s="130" t="s">
@@ -11423,7 +11420,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="427"/>
+      <c r="A42" s="426"/>
       <c r="B42" s="130" t="s">
         <v>107</v>
       </c>
@@ -11432,7 +11429,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="427"/>
+      <c r="A43" s="426"/>
       <c r="B43" s="130" t="s">
         <v>229</v>
       </c>
@@ -11441,7 +11438,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="427"/>
+      <c r="A44" s="426"/>
       <c r="B44" s="130" t="s">
         <v>108</v>
       </c>
@@ -11459,7 +11456,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="409" t="s">
+      <c r="A46" s="408" t="s">
         <v>85</v>
       </c>
       <c r="B46" s="128" t="s">
@@ -11470,7 +11467,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="410"/>
+      <c r="A47" s="409"/>
       <c r="B47" s="128" t="s">
         <v>112</v>
       </c>
@@ -11479,7 +11476,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="411" t="s">
+      <c r="A48" s="410" t="s">
         <v>86</v>
       </c>
       <c r="B48" s="128" t="s">
@@ -11490,7 +11487,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="411"/>
+      <c r="A49" s="410"/>
       <c r="B49" s="128" t="s">
         <v>115</v>
       </c>
@@ -11499,7 +11496,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="411"/>
+      <c r="A50" s="410"/>
       <c r="B50" s="128" t="s">
         <v>238</v>
       </c>
@@ -11508,7 +11505,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="411"/>
+      <c r="A51" s="410"/>
       <c r="B51" s="128" t="s">
         <v>240</v>
       </c>
@@ -11517,7 +11514,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="411"/>
+      <c r="A52" s="410"/>
       <c r="B52" s="128" t="s">
         <v>242</v>
       </c>
@@ -11526,7 +11523,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="411"/>
+      <c r="A53" s="410"/>
       <c r="B53" s="128" t="s">
         <v>244</v>
       </c>
@@ -11535,7 +11532,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="411"/>
+      <c r="A54" s="410"/>
       <c r="B54" s="128" t="s">
         <v>246</v>
       </c>
@@ -11544,7 +11541,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="412" t="s">
+      <c r="A55" s="411" t="s">
         <v>87</v>
       </c>
       <c r="B55" s="128" t="s">
@@ -11555,7 +11552,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="412"/>
+      <c r="A56" s="411"/>
       <c r="B56" s="128" t="s">
         <v>118</v>
       </c>
@@ -11564,7 +11561,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="412"/>
+      <c r="A57" s="411"/>
       <c r="B57" s="128" t="s">
         <v>119</v>
       </c>
@@ -11573,7 +11570,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="412"/>
+      <c r="A58" s="411"/>
       <c r="B58" s="128" t="s">
         <v>120</v>
       </c>
@@ -11582,7 +11579,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="413" t="s">
+      <c r="A59" s="412" t="s">
         <v>88</v>
       </c>
       <c r="B59" s="128" t="s">
@@ -11593,7 +11590,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="413"/>
+      <c r="A60" s="412"/>
       <c r="B60" s="128" t="s">
         <v>122</v>
       </c>
@@ -11602,7 +11599,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="413"/>
+      <c r="A61" s="412"/>
       <c r="B61" s="128" t="s">
         <v>123</v>
       </c>
@@ -11611,7 +11608,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="413"/>
+      <c r="A62" s="412"/>
       <c r="B62" s="128" t="s">
         <v>124</v>
       </c>
@@ -11620,7 +11617,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="413"/>
+      <c r="A63" s="412"/>
       <c r="B63" s="128" t="s">
         <v>125</v>
       </c>
@@ -11629,7 +11626,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="413"/>
+      <c r="A64" s="412"/>
       <c r="B64" s="128" t="s">
         <v>126</v>
       </c>
@@ -11638,7 +11635,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="413"/>
+      <c r="A65" s="412"/>
       <c r="B65" s="128" t="s">
         <v>127</v>
       </c>
@@ -11647,7 +11644,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="413"/>
+      <c r="A66" s="412"/>
       <c r="B66" s="128" t="s">
         <v>130</v>
       </c>
@@ -11656,7 +11653,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="413"/>
+      <c r="A67" s="412"/>
       <c r="B67" s="128" t="s">
         <v>131</v>
       </c>
@@ -11665,7 +11662,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="413"/>
+      <c r="A68" s="412"/>
       <c r="B68" s="128" t="s">
         <v>132</v>
       </c>
@@ -11674,7 +11671,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="413"/>
+      <c r="A69" s="412"/>
       <c r="B69" s="128" t="s">
         <v>134</v>
       </c>
@@ -11683,7 +11680,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="413"/>
+      <c r="A70" s="412"/>
       <c r="B70" s="128" t="s">
         <v>135</v>
       </c>
@@ -11692,7 +11689,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="413"/>
+      <c r="A71" s="412"/>
       <c r="B71" s="128" t="s">
         <v>136</v>
       </c>
@@ -11701,7 +11698,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="413"/>
+      <c r="A72" s="412"/>
       <c r="B72" s="128" t="s">
         <v>137</v>
       </c>
@@ -11710,7 +11707,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="413"/>
+      <c r="A73" s="412"/>
       <c r="B73" s="128" t="s">
         <v>138</v>
       </c>
@@ -11719,7 +11716,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="413"/>
+      <c r="A74" s="412"/>
       <c r="B74" s="128" t="s">
         <v>139</v>
       </c>
@@ -11728,7 +11725,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="413"/>
+      <c r="A75" s="412"/>
       <c r="B75" s="128" t="s">
         <v>140</v>
       </c>
@@ -11737,7 +11734,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="413"/>
+      <c r="A76" s="412"/>
       <c r="B76" s="128" t="s">
         <v>269</v>
       </c>
@@ -11746,7 +11743,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="413"/>
+      <c r="A77" s="412"/>
       <c r="B77" s="128" t="s">
         <v>141</v>
       </c>
@@ -11755,7 +11752,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="413"/>
+      <c r="A78" s="412"/>
       <c r="B78" s="128" t="s">
         <v>142</v>
       </c>
@@ -11764,7 +11761,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="413"/>
+      <c r="A79" s="412"/>
       <c r="B79" s="128" t="s">
         <v>143</v>
       </c>
@@ -11773,7 +11770,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="413"/>
+      <c r="A80" s="412"/>
       <c r="B80" s="128" t="s">
         <v>145</v>
       </c>
@@ -11782,7 +11779,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="413"/>
+      <c r="A81" s="412"/>
       <c r="B81" s="128" t="s">
         <v>144</v>
       </c>
@@ -11791,7 +11788,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="413"/>
+      <c r="A82" s="412"/>
       <c r="B82" s="128" t="s">
         <v>146</v>
       </c>
@@ -11800,21 +11797,21 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="413"/>
+      <c r="A83" s="412"/>
       <c r="B83" s="128" t="s">
         <v>277</v>
       </c>
       <c r="C83" s="129"/>
     </row>
     <row r="84" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="413"/>
+      <c r="A84" s="412"/>
       <c r="B84" s="128" t="s">
         <v>278</v>
       </c>
       <c r="C84" s="129"/>
     </row>
     <row r="85" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="414"/>
+      <c r="A85" s="413"/>
       <c r="B85" s="132" t="s">
         <v>148</v>
       </c>
@@ -11852,7 +11849,7 @@
   <dimension ref="A1:BT3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="BN3" sqref="BN3"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -11930,90 +11927,90 @@
     <row r="2" spans="1:72" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="106"/>
       <c r="B2" s="106"/>
-      <c r="C2" s="431" t="s">
+      <c r="C2" s="430" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="432"/>
-      <c r="E2" s="432"/>
-      <c r="F2" s="432"/>
-      <c r="G2" s="432"/>
-      <c r="H2" s="432"/>
-      <c r="I2" s="432"/>
-      <c r="J2" s="432"/>
-      <c r="K2" s="432"/>
-      <c r="L2" s="432"/>
-      <c r="M2" s="432"/>
-      <c r="N2" s="433"/>
+      <c r="D2" s="431"/>
+      <c r="E2" s="431"/>
+      <c r="F2" s="431"/>
+      <c r="G2" s="431"/>
+      <c r="H2" s="431"/>
+      <c r="I2" s="431"/>
+      <c r="J2" s="431"/>
+      <c r="K2" s="431"/>
+      <c r="L2" s="431"/>
+      <c r="M2" s="431"/>
+      <c r="N2" s="432"/>
       <c r="O2" s="326"/>
-      <c r="P2" s="434" t="s">
+      <c r="P2" s="433" t="s">
         <v>83</v>
       </c>
-      <c r="Q2" s="435"/>
-      <c r="R2" s="435"/>
-      <c r="S2" s="435"/>
-      <c r="T2" s="435"/>
-      <c r="U2" s="435"/>
-      <c r="V2" s="435"/>
-      <c r="W2" s="435"/>
-      <c r="X2" s="436"/>
+      <c r="Q2" s="434"/>
+      <c r="R2" s="434"/>
+      <c r="S2" s="434"/>
+      <c r="T2" s="434"/>
+      <c r="U2" s="434"/>
+      <c r="V2" s="434"/>
+      <c r="W2" s="434"/>
+      <c r="X2" s="435"/>
       <c r="Y2" s="138" t="s">
         <v>84</v>
       </c>
       <c r="Z2" s="139"/>
       <c r="AA2" s="243"/>
       <c r="AB2" s="140"/>
-      <c r="AC2" s="437" t="s">
+      <c r="AC2" s="436" t="s">
         <v>85</v>
       </c>
-      <c r="AD2" s="438"/>
-      <c r="AE2" s="439"/>
-      <c r="AF2" s="440" t="s">
+      <c r="AD2" s="437"/>
+      <c r="AE2" s="438"/>
+      <c r="AF2" s="439" t="s">
         <v>86</v>
       </c>
-      <c r="AG2" s="441"/>
-      <c r="AH2" s="441"/>
-      <c r="AI2" s="442"/>
-      <c r="AJ2" s="443" t="s">
+      <c r="AG2" s="440"/>
+      <c r="AH2" s="440"/>
+      <c r="AI2" s="441"/>
+      <c r="AJ2" s="442" t="s">
         <v>87</v>
       </c>
-      <c r="AK2" s="444"/>
-      <c r="AL2" s="444"/>
-      <c r="AM2" s="445"/>
-      <c r="AN2" s="428" t="s">
+      <c r="AK2" s="443"/>
+      <c r="AL2" s="443"/>
+      <c r="AM2" s="444"/>
+      <c r="AN2" s="427" t="s">
         <v>88</v>
       </c>
-      <c r="AO2" s="429"/>
-      <c r="AP2" s="429"/>
-      <c r="AQ2" s="429"/>
-      <c r="AR2" s="429"/>
-      <c r="AS2" s="429"/>
-      <c r="AT2" s="429"/>
-      <c r="AU2" s="429"/>
-      <c r="AV2" s="429"/>
-      <c r="AW2" s="429"/>
-      <c r="AX2" s="429"/>
-      <c r="AY2" s="429"/>
-      <c r="AZ2" s="429"/>
-      <c r="BA2" s="429"/>
-      <c r="BB2" s="429"/>
-      <c r="BC2" s="429"/>
-      <c r="BD2" s="429"/>
-      <c r="BE2" s="429"/>
-      <c r="BF2" s="429"/>
-      <c r="BG2" s="429"/>
-      <c r="BH2" s="429"/>
-      <c r="BI2" s="429"/>
-      <c r="BJ2" s="429"/>
-      <c r="BK2" s="429"/>
-      <c r="BL2" s="429"/>
-      <c r="BM2" s="429"/>
-      <c r="BN2" s="429"/>
-      <c r="BO2" s="429"/>
-      <c r="BP2" s="429"/>
-      <c r="BQ2" s="429"/>
-      <c r="BR2" s="429"/>
-      <c r="BS2" s="429"/>
-      <c r="BT2" s="430"/>
+      <c r="AO2" s="428"/>
+      <c r="AP2" s="428"/>
+      <c r="AQ2" s="428"/>
+      <c r="AR2" s="428"/>
+      <c r="AS2" s="428"/>
+      <c r="AT2" s="428"/>
+      <c r="AU2" s="428"/>
+      <c r="AV2" s="428"/>
+      <c r="AW2" s="428"/>
+      <c r="AX2" s="428"/>
+      <c r="AY2" s="428"/>
+      <c r="AZ2" s="428"/>
+      <c r="BA2" s="428"/>
+      <c r="BB2" s="428"/>
+      <c r="BC2" s="428"/>
+      <c r="BD2" s="428"/>
+      <c r="BE2" s="428"/>
+      <c r="BF2" s="428"/>
+      <c r="BG2" s="428"/>
+      <c r="BH2" s="428"/>
+      <c r="BI2" s="428"/>
+      <c r="BJ2" s="428"/>
+      <c r="BK2" s="428"/>
+      <c r="BL2" s="428"/>
+      <c r="BM2" s="428"/>
+      <c r="BN2" s="428"/>
+      <c r="BO2" s="428"/>
+      <c r="BP2" s="428"/>
+      <c r="BQ2" s="428"/>
+      <c r="BR2" s="428"/>
+      <c r="BS2" s="428"/>
+      <c r="BT2" s="429"/>
     </row>
     <row r="3" spans="1:72" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110"/>
@@ -12249,10 +12246,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:AT3"/>
+  <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AT3" sqref="AT3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12269,7 +12266,7 @@
     <col min="42" max="43" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -12294,7 +12291,7 @@
       <c r="AQ1" s="105"/>
       <c r="AR1" s="177"/>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="S2" s="107"/>
       <c r="T2" s="107"/>
       <c r="Y2" s="104"/>
@@ -12310,7 +12307,7 @@
       <c r="AQ2" s="105"/>
       <c r="AR2" s="177"/>
     </row>
-    <row r="3" spans="1:46" s="111" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" s="111" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="C3" s="143" t="s">
         <v>31</v>
       </c>
@@ -12439,9 +12436,6 @@
       </c>
       <c r="AS3" s="147" t="s">
         <v>160</v>
-      </c>
-      <c r="AT3" s="334" t="s">
-        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -12456,7 +12450,7 @@
   </sheetPr>
   <dimension ref="A1:CE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO17" workbookViewId="0">
+    <sheetView topLeftCell="BO1" workbookViewId="0">
       <selection activeCell="BU28" sqref="BU28"/>
     </sheetView>
   </sheetViews>

--- a/LifeCycleDevEnvironmentConsole/WorkFlow Data/TheBay/Template/Daily Workflow_TheBay_Final_Template_2020.xlsx
+++ b/LifeCycleDevEnvironmentConsole/WorkFlow Data/TheBay/Template/Daily Workflow_TheBay_Final_Template_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Middle\source\repos\alwaysmiddle\LifeCycleWorkflowTool\LifeCycleDevEnvironmentConsole\WorkFlow Data\TheBay\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD1FF4F-CC81-4555-8761-8BCA6D91E686}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0CED33-10FB-4D8F-AD48-3FD5F62261D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19875" yWindow="840" windowWidth="21180" windowHeight="14310" tabRatio="756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25725" yWindow="1500" windowWidth="21180" windowHeight="14325" tabRatio="756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Chart" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4018,14 +4019,134 @@
     <xf numFmtId="164" fontId="14" fillId="2" borderId="98" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="14" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="14" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="14" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4044,126 +4165,6 @@
     </xf>
     <xf numFmtId="1" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="14" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="14" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="14" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4987,7 +4988,7 @@
   <dimension ref="A1:BO73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D48" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="N75" sqref="N75"/>
+      <selection activeCell="W67" sqref="W67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -5149,53 +5150,53 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="10"/>
-      <c r="N5" s="390">
+      <c r="N5" s="366">
         <f ca="1">TODAY()</f>
-        <v>44014</v>
-      </c>
-      <c r="O5" s="391"/>
-      <c r="P5" s="391"/>
-      <c r="Q5" s="391"/>
-      <c r="R5" s="391"/>
-      <c r="S5" s="391"/>
-      <c r="T5" s="391"/>
-      <c r="U5" s="391"/>
-      <c r="V5" s="392"/>
-      <c r="W5" s="393" t="s">
+        <v>44062</v>
+      </c>
+      <c r="O5" s="367"/>
+      <c r="P5" s="367"/>
+      <c r="Q5" s="367"/>
+      <c r="R5" s="367"/>
+      <c r="S5" s="367"/>
+      <c r="T5" s="367"/>
+      <c r="U5" s="367"/>
+      <c r="V5" s="368"/>
+      <c r="W5" s="369" t="s">
         <v>0</v>
       </c>
-      <c r="X5" s="394"/>
-      <c r="Y5" s="394"/>
-      <c r="Z5" s="394"/>
-      <c r="AA5" s="394"/>
-      <c r="AB5" s="394"/>
-      <c r="AC5" s="394"/>
-      <c r="AD5" s="394"/>
-      <c r="AE5" s="394"/>
-      <c r="AF5" s="394"/>
-      <c r="AG5" s="394"/>
-      <c r="AH5" s="394"/>
-      <c r="AI5" s="394"/>
-      <c r="AJ5" s="394"/>
-      <c r="AK5" s="394"/>
-      <c r="AL5" s="394"/>
-      <c r="AM5" s="394"/>
-      <c r="AN5" s="394"/>
-      <c r="AO5" s="394"/>
-      <c r="AP5" s="394"/>
-      <c r="AQ5" s="394"/>
-      <c r="AR5" s="394"/>
-      <c r="AS5" s="394"/>
-      <c r="AT5" s="394"/>
-      <c r="AU5" s="394"/>
-      <c r="AV5" s="394"/>
-      <c r="AW5" s="394"/>
-      <c r="AX5" s="394"/>
-      <c r="AY5" s="394"/>
-      <c r="AZ5" s="394"/>
-      <c r="BA5" s="394"/>
-      <c r="BB5" s="394"/>
-      <c r="BC5" s="394"/>
+      <c r="X5" s="370"/>
+      <c r="Y5" s="370"/>
+      <c r="Z5" s="370"/>
+      <c r="AA5" s="370"/>
+      <c r="AB5" s="370"/>
+      <c r="AC5" s="370"/>
+      <c r="AD5" s="370"/>
+      <c r="AE5" s="370"/>
+      <c r="AF5" s="370"/>
+      <c r="AG5" s="370"/>
+      <c r="AH5" s="370"/>
+      <c r="AI5" s="370"/>
+      <c r="AJ5" s="370"/>
+      <c r="AK5" s="370"/>
+      <c r="AL5" s="370"/>
+      <c r="AM5" s="370"/>
+      <c r="AN5" s="370"/>
+      <c r="AO5" s="370"/>
+      <c r="AP5" s="370"/>
+      <c r="AQ5" s="370"/>
+      <c r="AR5" s="370"/>
+      <c r="AS5" s="370"/>
+      <c r="AT5" s="370"/>
+      <c r="AU5" s="370"/>
+      <c r="AV5" s="370"/>
+      <c r="AW5" s="370"/>
+      <c r="AX5" s="370"/>
+      <c r="AY5" s="370"/>
+      <c r="AZ5" s="370"/>
+      <c r="BA5" s="370"/>
+      <c r="BB5" s="370"/>
+      <c r="BC5" s="370"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.2">
       <c r="D6" s="2"/>
@@ -5312,17 +5313,17 @@
       <c r="K8" s="17"/>
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
-      <c r="N8" s="395" t="s">
+      <c r="N8" s="371" t="s">
         <v>1</v>
       </c>
-      <c r="O8" s="396"/>
-      <c r="P8" s="396"/>
-      <c r="Q8" s="396"/>
-      <c r="R8" s="396"/>
-      <c r="S8" s="396"/>
-      <c r="T8" s="396"/>
-      <c r="U8" s="396"/>
-      <c r="V8" s="397"/>
+      <c r="O8" s="372"/>
+      <c r="P8" s="372"/>
+      <c r="Q8" s="372"/>
+      <c r="R8" s="372"/>
+      <c r="S8" s="372"/>
+      <c r="T8" s="372"/>
+      <c r="U8" s="372"/>
+      <c r="V8" s="373"/>
       <c r="W8" s="15"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
@@ -5332,111 +5333,111 @@
     </row>
     <row r="9" spans="1:67" s="18" customFormat="1" ht="68.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D9" s="19"/>
-      <c r="E9" s="381" t="s">
+      <c r="E9" s="387" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="382"/>
-      <c r="G9" s="383"/>
-      <c r="H9" s="381" t="s">
+      <c r="F9" s="388"/>
+      <c r="G9" s="389"/>
+      <c r="H9" s="387" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="382"/>
-      <c r="J9" s="383"/>
-      <c r="K9" s="381" t="s">
+      <c r="I9" s="388"/>
+      <c r="J9" s="389"/>
+      <c r="K9" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="382"/>
-      <c r="M9" s="383"/>
-      <c r="N9" s="384" t="s">
+      <c r="L9" s="388"/>
+      <c r="M9" s="389"/>
+      <c r="N9" s="374" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="385"/>
-      <c r="P9" s="385"/>
-      <c r="Q9" s="385"/>
-      <c r="R9" s="386"/>
-      <c r="S9" s="384" t="s">
+      <c r="O9" s="390"/>
+      <c r="P9" s="390"/>
+      <c r="Q9" s="390"/>
+      <c r="R9" s="375"/>
+      <c r="S9" s="374" t="s">
         <v>6</v>
       </c>
-      <c r="T9" s="386"/>
-      <c r="U9" s="384" t="s">
+      <c r="T9" s="375"/>
+      <c r="U9" s="374" t="s">
         <v>7</v>
       </c>
-      <c r="V9" s="386"/>
-      <c r="W9" s="398" t="s">
+      <c r="V9" s="375"/>
+      <c r="W9" s="376" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="399"/>
-      <c r="Y9" s="400"/>
-      <c r="Z9" s="401" t="s">
+      <c r="X9" s="377"/>
+      <c r="Y9" s="378"/>
+      <c r="Z9" s="379" t="s">
         <v>9</v>
       </c>
-      <c r="AA9" s="402"/>
-      <c r="AB9" s="403"/>
-      <c r="AC9" s="404" t="s">
+      <c r="AA9" s="380"/>
+      <c r="AB9" s="381"/>
+      <c r="AC9" s="382" t="s">
         <v>10</v>
       </c>
-      <c r="AD9" s="405"/>
-      <c r="AE9" s="405"/>
-      <c r="AF9" s="404" t="s">
+      <c r="AD9" s="383"/>
+      <c r="AE9" s="383"/>
+      <c r="AF9" s="382" t="s">
         <v>10</v>
       </c>
-      <c r="AG9" s="405"/>
-      <c r="AH9" s="405"/>
-      <c r="AI9" s="404" t="s">
+      <c r="AG9" s="383"/>
+      <c r="AH9" s="383"/>
+      <c r="AI9" s="382" t="s">
         <v>10</v>
       </c>
-      <c r="AJ9" s="405"/>
-      <c r="AK9" s="405"/>
-      <c r="AL9" s="368" t="s">
+      <c r="AJ9" s="383"/>
+      <c r="AK9" s="383"/>
+      <c r="AL9" s="364" t="s">
         <v>10</v>
       </c>
-      <c r="AM9" s="369"/>
-      <c r="AN9" s="369"/>
-      <c r="AO9" s="368" t="s">
+      <c r="AM9" s="365"/>
+      <c r="AN9" s="365"/>
+      <c r="AO9" s="364" t="s">
         <v>10</v>
       </c>
-      <c r="AP9" s="369"/>
-      <c r="AQ9" s="369"/>
-      <c r="AR9" s="368" t="s">
+      <c r="AP9" s="365"/>
+      <c r="AQ9" s="365"/>
+      <c r="AR9" s="364" t="s">
         <v>10</v>
       </c>
-      <c r="AS9" s="369"/>
-      <c r="AT9" s="369"/>
-      <c r="AU9" s="372" t="s">
+      <c r="AS9" s="365"/>
+      <c r="AT9" s="365"/>
+      <c r="AU9" s="400" t="s">
         <v>11</v>
       </c>
-      <c r="AV9" s="373"/>
-      <c r="AW9" s="373"/>
-      <c r="AX9" s="370" t="s">
+      <c r="AV9" s="401"/>
+      <c r="AW9" s="401"/>
+      <c r="AX9" s="398" t="s">
         <v>12</v>
       </c>
-      <c r="AY9" s="371"/>
-      <c r="AZ9" s="371"/>
-      <c r="BA9" s="362" t="s">
+      <c r="AY9" s="399"/>
+      <c r="AZ9" s="399"/>
+      <c r="BA9" s="402" t="s">
         <v>13</v>
       </c>
-      <c r="BB9" s="363"/>
-      <c r="BC9" s="363"/>
-      <c r="BD9" s="364" t="s">
+      <c r="BB9" s="403"/>
+      <c r="BC9" s="403"/>
+      <c r="BD9" s="404" t="s">
         <v>14</v>
       </c>
-      <c r="BE9" s="365"/>
-      <c r="BF9" s="365"/>
-      <c r="BG9" s="366" t="s">
+      <c r="BE9" s="405"/>
+      <c r="BF9" s="405"/>
+      <c r="BG9" s="406" t="s">
         <v>14</v>
       </c>
-      <c r="BH9" s="365"/>
-      <c r="BI9" s="365"/>
-      <c r="BJ9" s="406" t="s">
+      <c r="BH9" s="405"/>
+      <c r="BI9" s="405"/>
+      <c r="BJ9" s="384" t="s">
         <v>14</v>
       </c>
-      <c r="BK9" s="407"/>
-      <c r="BL9" s="407"/>
-      <c r="BM9" s="387" t="s">
+      <c r="BK9" s="385"/>
+      <c r="BL9" s="385"/>
+      <c r="BM9" s="359" t="s">
         <v>14</v>
       </c>
-      <c r="BN9" s="388"/>
-      <c r="BO9" s="389"/>
+      <c r="BN9" s="360"/>
+      <c r="BO9" s="361"/>
     </row>
     <row r="10" spans="1:67" s="20" customFormat="1" ht="25.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D10" s="21" t="s">
@@ -5662,7 +5663,7 @@
       <c r="BO11" s="318"/>
     </row>
     <row r="12" spans="1:67" ht="48" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="374" t="s">
+      <c r="D12" s="391" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="52" t="s">
@@ -5689,125 +5690,125 @@
       <c r="N12" s="253" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="375" t="s">
+      <c r="O12" s="392" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="375"/>
-      <c r="Q12" s="375"/>
-      <c r="R12" s="376"/>
-      <c r="S12" s="377" t="s">
+      <c r="P12" s="392"/>
+      <c r="Q12" s="392"/>
+      <c r="R12" s="393"/>
+      <c r="S12" s="394" t="s">
         <v>29</v>
       </c>
-      <c r="T12" s="378"/>
-      <c r="U12" s="379" t="s">
+      <c r="T12" s="395"/>
+      <c r="U12" s="396" t="s">
         <v>29</v>
       </c>
-      <c r="V12" s="380"/>
+      <c r="V12" s="397"/>
       <c r="W12" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="X12" s="359" t="s">
+      <c r="X12" s="362" t="s">
         <v>29</v>
       </c>
-      <c r="Y12" s="361"/>
+      <c r="Y12" s="363"/>
       <c r="Z12" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="AA12" s="359" t="s">
+      <c r="AA12" s="362" t="s">
         <v>29</v>
       </c>
-      <c r="AB12" s="361"/>
+      <c r="AB12" s="363"/>
       <c r="AC12" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="AD12" s="359" t="s">
+      <c r="AD12" s="362" t="s">
         <v>29</v>
       </c>
-      <c r="AE12" s="360"/>
+      <c r="AE12" s="386"/>
       <c r="AF12" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="AG12" s="359" t="s">
+      <c r="AG12" s="362" t="s">
         <v>29</v>
       </c>
-      <c r="AH12" s="360"/>
+      <c r="AH12" s="386"/>
       <c r="AI12" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="AJ12" s="359" t="s">
+      <c r="AJ12" s="362" t="s">
         <v>29</v>
       </c>
-      <c r="AK12" s="360"/>
+      <c r="AK12" s="386"/>
       <c r="AL12" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="AM12" s="359" t="s">
+      <c r="AM12" s="362" t="s">
         <v>29</v>
       </c>
-      <c r="AN12" s="361"/>
+      <c r="AN12" s="363"/>
       <c r="AO12" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="AP12" s="359" t="s">
+      <c r="AP12" s="362" t="s">
         <v>29</v>
       </c>
-      <c r="AQ12" s="361"/>
+      <c r="AQ12" s="363"/>
       <c r="AR12" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="AS12" s="359" t="s">
+      <c r="AS12" s="362" t="s">
         <v>29</v>
       </c>
-      <c r="AT12" s="361"/>
+      <c r="AT12" s="363"/>
       <c r="AU12" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="AV12" s="359" t="s">
+      <c r="AV12" s="362" t="s">
         <v>29</v>
       </c>
-      <c r="AW12" s="361"/>
+      <c r="AW12" s="363"/>
       <c r="AX12" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="AY12" s="359" t="s">
+      <c r="AY12" s="362" t="s">
         <v>29</v>
       </c>
-      <c r="AZ12" s="361"/>
+      <c r="AZ12" s="363"/>
       <c r="BA12" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="BB12" s="359" t="s">
+      <c r="BB12" s="362" t="s">
         <v>29</v>
       </c>
-      <c r="BC12" s="361"/>
+      <c r="BC12" s="363"/>
       <c r="BD12" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="BE12" s="367" t="s">
+      <c r="BE12" s="407" t="s">
         <v>29</v>
       </c>
-      <c r="BF12" s="360"/>
+      <c r="BF12" s="386"/>
       <c r="BG12" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="BH12" s="367" t="s">
+      <c r="BH12" s="407" t="s">
         <v>29</v>
       </c>
-      <c r="BI12" s="360"/>
+      <c r="BI12" s="386"/>
       <c r="BJ12" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="BK12" s="359" t="s">
+      <c r="BK12" s="362" t="s">
         <v>29</v>
       </c>
-      <c r="BL12" s="360"/>
+      <c r="BL12" s="386"/>
       <c r="BM12" s="314" t="s">
         <v>28</v>
       </c>
-      <c r="BN12" s="359" t="s">
+      <c r="BN12" s="362" t="s">
         <v>29</v>
       </c>
-      <c r="BO12" s="361"/>
+      <c r="BO12" s="363"/>
     </row>
     <row r="13" spans="1:67" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
@@ -5816,7 +5817,7 @@
       <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="374"/>
+      <c r="D13" s="391"/>
       <c r="E13" s="57" t="s">
         <v>32</v>
       </c>
@@ -10908,6 +10909,33 @@
     <row r="73" spans="1:67" collapsed="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="BK12:BL12"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AP12:AQ12"/>
+    <mergeCell ref="AS12:AT12"/>
+    <mergeCell ref="BB12:BC12"/>
+    <mergeCell ref="BA9:BC9"/>
+    <mergeCell ref="BD9:BF9"/>
+    <mergeCell ref="BG9:BI9"/>
+    <mergeCell ref="BE12:BF12"/>
+    <mergeCell ref="BH12:BI12"/>
+    <mergeCell ref="AO9:AQ9"/>
+    <mergeCell ref="AR9:AT9"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="S9:T9"/>
     <mergeCell ref="BM9:BO9"/>
     <mergeCell ref="BN12:BO12"/>
     <mergeCell ref="AL9:AN9"/>
@@ -10924,33 +10952,6 @@
     <mergeCell ref="AA12:AB12"/>
     <mergeCell ref="AD12:AE12"/>
     <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="AO9:AQ9"/>
-    <mergeCell ref="AR9:AT9"/>
-    <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="AU9:AW9"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BA9:BC9"/>
-    <mergeCell ref="BD9:BF9"/>
-    <mergeCell ref="BG9:BI9"/>
-    <mergeCell ref="BE12:BF12"/>
-    <mergeCell ref="BH12:BI12"/>
-    <mergeCell ref="BK12:BL12"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AP12:AQ12"/>
-    <mergeCell ref="AS12:AT12"/>
-    <mergeCell ref="BB12:BC12"/>
   </mergeCells>
   <conditionalFormatting sqref="V14 V41:V47 V66:V68 V16:V21 V28:V33 V37 V59 V52:V54">
     <cfRule type="cellIs" dxfId="30" priority="45" operator="lessThan">
